--- a/UnitTests/Excel/Testfiles/nested_attributes_2.xlsx
+++ b/UnitTests/Excel/Testfiles/nested_attributes_2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t xml:space="preserve">typeURI</t>
   </si>
@@ -43,12 +43,6 @@
     <t xml:space="preserve">testComplexTypeMetKard[].testComplexType2.testStringField</t>
   </si>
   <si>
-    <t xml:space="preserve">testComplexTypeMetKard[].testComplexType2MetKard[].testKwantWrd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testComplexTypeMetKard[].testComplexType2MetKard[].testStringField</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://wegenenverkeer.data.vlaanderen.be/ns/onderdeel#AllCasesTestClass</t>
   </si>
   <si>
@@ -59,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">string1|string2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;unable to write a nested list in a csv&gt;</t>
   </si>
 </sst>
 </file>
@@ -76,6 +67,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -157,13 +149,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.97"/>
@@ -172,8 +164,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="51.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="58.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="59.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -198,40 +188,28 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>76.8</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
